--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44419,6 +44419,41 @@
         <v>222700</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>281200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44454,6 +44454,41 @@
         <v>281200</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>273000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44489,6 +44489,41 @@
         <v>273000</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>276800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44524,6 +44524,41 @@
         <v>276800</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>388300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44559,6 +44559,41 @@
         <v>388300</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>461500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44594,6 +44594,41 @@
         <v>461500</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>365900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44629,6 +44629,41 @@
         <v>365900</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>129800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44664,6 +44664,41 @@
         <v>129800</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>823200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44699,6 +44699,41 @@
         <v>823200</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>245300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44734,6 +44734,41 @@
         <v>245300</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>51500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44769,6 +44769,41 @@
         <v>51500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44804,6 +44804,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44839,6 +44839,78 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44911,6 +44911,76 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>44000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44981,6 +44981,43 @@
         <v>44000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45018,6 +45018,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>35200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45053,6 +45053,41 @@
         <v>35200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>37100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45088,6 +45088,41 @@
         <v>37100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45123,6 +45123,78 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45195,6 +45195,43 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45232,6 +45232,41 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1609"/>
+  <dimension ref="A1:I1610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58497,6 +58497,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1610" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>10700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1610"/>
+  <dimension ref="A1:I1611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58532,6 +58532,41 @@
         <v>10700</v>
       </c>
     </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1611" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1611"/>
+  <dimension ref="A1:I1612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58567,6 +58567,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1612" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1612" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1612"/>
+  <dimension ref="A1:I1613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58604,6 +58604,43 @@
         </is>
       </c>
     </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1613" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1613" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1613"/>
+  <dimension ref="A1:I1614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58641,6 +58641,43 @@
         </is>
       </c>
     </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1614" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1614" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1614"/>
+  <dimension ref="A1:I1615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58678,6 +58678,43 @@
         </is>
       </c>
     </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1615" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1615" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1615"/>
+  <dimension ref="A1:I1616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58715,6 +58715,43 @@
         </is>
       </c>
     </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1616" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1616" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1616"/>
+  <dimension ref="A1:I1617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58752,6 +58752,41 @@
         </is>
       </c>
     </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1617" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>8200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1617"/>
+  <dimension ref="A1:I1618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58787,6 +58787,43 @@
         <v>8200</v>
       </c>
     </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1618" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1618"/>
+  <dimension ref="A1:I1619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58824,6 +58824,41 @@
         </is>
       </c>
     </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1619" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1619"/>
+  <dimension ref="A1:I1620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58859,6 +58859,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1620" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1620"/>
+  <dimension ref="A1:I1621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58894,6 +58894,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1621" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1621"/>
+  <dimension ref="A1:I1622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58931,6 +58931,43 @@
         </is>
       </c>
     </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1622" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1622"/>
+  <dimension ref="A1:I1623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58968,6 +58968,41 @@
         </is>
       </c>
     </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1623" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>22300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7007.xlsx
+++ b/data/7007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1623"/>
+  <dimension ref="A1:I1624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59003,6 +59003,43 @@
         <v>22300</v>
       </c>
     </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>7007</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="E1624" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
